--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -40,12 +40,16 @@
   </si>
   <si>
     <t>user101@gmail.com</t>
+  </si>
+  <si>
+    <t>Login(Login failed for invalid)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -392,8 +396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.89453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -446,6 +450,9 @@
       </c>
       <c r="B5">
         <v>123456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Not Login(Login passed for invalid)</t>
-  </si>
-  <si>
-    <t>user101@gmail.com</t>
-  </si>
-  <si>
-    <t>Login(Login failed for invalid)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,14 +439,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>123456</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +449,6 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
